--- a/biology/Botanique/Annona_ambotay/Annona_ambotay.xlsx
+++ b/biology/Botanique/Annona_ambotay/Annona_ambotay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Annona ambotay est une espèce de petit arbre appartenant à la famille des Annonaceae, connue en Guyane sous le noms de Vilataille (Créole), Ɨwi tay (Wayãpi), Envira-taia, Envira-cajú (Portugais)[2] et anciennement Ambotay (Galibi). En bolivie, on l'appelle Rononopa (Chácobo)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annona ambotay est une espèce de petit arbre appartenant à la famille des Annonaceae, connue en Guyane sous le noms de Vilataille (Créole), Ɨwi tay (Wayãpi), Envira-taia, Envira-cajú (Portugais) et anciennement Ambotay (Galibi). En bolivie, on l'appelle Rononopa (Chácobo).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Annona ambotay est un arbre élancé (parfois un arbrisseau grimpant) haut de 3-7 m.
 Les jeunes rameaux sont densément tomenteux-ferrugineux.
@@ -521,7 +535,7 @@
 On note une bractée au-dessus de la base.
 Les fleurs sont généralement de couleur rouge foncé, avec des sépales mesurant 2 mm poilus-ferrugineux en dehors, et six pétales : ceux externes sont connés à la base et s'étalant à leur extrémité, mesurant 15-25 x 7 mm, de forme oblongue, poilus-ferrugineux au dehors, et ceux internes moitié plus petits.
 Les connectifs sont finement apiculés.
-Les fruits sont globuleux, lisses à rugueux, non aréolés, et mesurent 3-5 cm de diamètre[4],[5].
+Les fruits sont globuleux, lisses à rugueux, non aréolés, et mesurent 3-5 cm de diamètre,.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Annona ambotay est présent en Colombie, au Venezuela (Bolívar : bas Río Caura, Amazonas : Culebra), au Guyana, au Suriname, en Guyane, au Pérou, dans le Brésil amazonien et en Bolivie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annona ambotay est présent en Colombie, au Venezuela (Bolívar : bas Río Caura, Amazonas : Culebra), au Guyana, au Suriname, en Guyane, au Pérou, dans le Brésil amazonien et en Bolivie.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Annona ambotay au Venezuela dans les forêts sempervirentes de plaine, et les lisières forestières autour de 100-300 m d'altitude[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Annona ambotay au Venezuela dans les forêts sempervirentes de plaine, et les lisières forestières autour de 100-300 m d'altitude.
 </t>
         </is>
       </c>
@@ -612,18 +630,17 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les Galibi de Guyane, l'écorce d’Annona ambotay était autrefois bouillie et employée pour soigner les ulcères[6].
-Les feuilles et l'écorce d’Annona ambotay servent à fabriquer un puissant remède fébrifuges et sudorifiques chez les Wayãpi[2].
-Selon les Waimiri-Atroari (en) l'écorce d’Annona ambotay est utile pour traiter les troubles mentaux[7].
-À Alter-do-Chão, les Caboclos emploient la fumée du bois d’Annona ambotay sert à soulager les femmes post-partum, pour éloigner les insectes piqueurs, et la tisane d'écorce contre les maux d'estomac[8].
-Les Chacobo de Bolivie utilisent l'écorce de la tige d’Annona ambotay pour soigner les entorses[3].
-Les propriétés pharmacologiques d'extraits d’Annona ambotay ont été évaluées, notamment ses propriétés antibactériennes[9], antimalariales[10], antifongiques, antioxydantes antitumorales[11] et sa toxicité[12].
-L'écorce des racines d’Annona ambotay entre dans la composition de curares[13],[14].
-Chimie
-On a isolé du tronc d’Annona ambotay une azaanthracène géovanine originale ainsi que de la liriodénine, de la O-méthylmoschatoline, des flavonoïdes, du kaempférol, de la quercétine, du (+)-dihydrokaempférol, du (+)-dihydroquerétine, du (±)-périodictiol et de la  (+)-catéchine, des stéroïdes sitostérol et de la 5α-stigmastan-3,6-dione[15], mais aussi de l'argentilactone et un acide gras original (l'acide 5-hydroxydodeca-cis-2,trans-6- diénoïque[3].
-Son huile essentielle a aussi été analysée[16].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les Galibi de Guyane, l'écorce d’Annona ambotay était autrefois bouillie et employée pour soigner les ulcères.
+Les feuilles et l'écorce d’Annona ambotay servent à fabriquer un puissant remède fébrifuges et sudorifiques chez les Wayãpi.
+Selon les Waimiri-Atroari (en) l'écorce d’Annona ambotay est utile pour traiter les troubles mentaux.
+À Alter-do-Chão, les Caboclos emploient la fumée du bois d’Annona ambotay sert à soulager les femmes post-partum, pour éloigner les insectes piqueurs, et la tisane d'écorce contre les maux d'estomac.
+Les Chacobo de Bolivie utilisent l'écorce de la tige d’Annona ambotay pour soigner les entorses.
+Les propriétés pharmacologiques d'extraits d’Annona ambotay ont été évaluées, notamment ses propriétés antibactériennes, antimalariales, antifongiques, antioxydantes antitumorales et sa toxicité.
+L'écorce des racines d’Annona ambotay entre dans la composition de curares,.
 </t>
         </is>
       </c>
@@ -649,12 +666,52 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a isolé du tronc d’Annona ambotay une azaanthracène géovanine originale ainsi que de la liriodénine, de la O-méthylmoschatoline, des flavonoïdes, du kaempférol, de la quercétine, du (+)-dihydrokaempférol, du (+)-dihydroquerétine, du (±)-périodictiol et de la  (+)-catéchine, des stéroïdes sitostérol et de la 5α-stigmastan-3,6-dione, mais aussi de l'argentilactone et un acide gras original (l'acide 5-hydroxydodeca-cis-2,trans-6- diénoïque.
+Son huile essentielle a aussi été analysée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Annona_ambotay</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annona_ambotay</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante[1] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante : 
 « 1. ANNONA (ambotay) foliis amplis, ſubtùs villoſis &amp; rufeſcentibus. (Tabula 149.)
 Frutex octo-pedalis ; caulibus tortuoſis, ramoſis. Folia alterna, ampla, ovata, acuta, integerrima, ſupernè viridia, glabra, infernè tomentoſa, ferruginea, brevi petiolata. Flores exigui, ſubvirides, ſolitarii, axillares. Non lieuit obſervare fructum. Cortex ramorum odorem romaticum exhalat ; ſapore eſt acri &amp; aromatico. 
 Florebat Novembri. 
